--- a/biology/Zoologie/Horaiclavidae/Horaiclavidae.xlsx
+++ b/biology/Zoologie/Horaiclavidae/Horaiclavidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Horaiclavidae sont une famille de mollusques gastéropodes marins de l'ordre des Neogastropoda.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Horaiclavidae a été créée en 2011 par Philippe Bouchet, Yuri Izrailevich Kantor (d), Alexander V. Sysoev (d) et Nicolas Puillandre (d), avec pour genre type Horaiclavus Ōyama (d), 1954[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Horaiclavidae a été créée en 2011 par Philippe Bouchet, Yuri Izrailevich Kantor (d), Alexander V. Sysoev (d) et Nicolas Puillandre (d), avec pour genre type Horaiclavus Ōyama (d), 1954.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces mesurent en général entre 5 et 25 mm et typiquement entre 7 et 15 mm[1]. Cette famille est proche de celle des Pseudomelatomidae mais s'en différencie par des coquilles plus renflées et petites, un canal siphonal plus court et habituellement une structure en spirale moins développée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces mesurent en général entre 5 et 25 mm et typiquement entre 7 et 15 mm. Cette famille est proche de celle des Pseudomelatomidae mais s'en différencie par des coquilles plus renflées et petites, un canal siphonal plus court et habituellement une structure en spirale moins développée.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 août 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 août 2021) :
 genre Anacithara Hedley, 1922
 genre Anguloclavus Shuto, 1983
 genre Aoteadrillia Powell, 1942
@@ -636,7 +654,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) P. Bouchet, Yu. I. Kantor, A. Sysoev et N. Puillandre, « A new operational classification of the Conoidea (Gastropoda) », Journal of Molluscan Studies, OUP et Malacological Society of London, vol. 77, no 3,‎ 26 juillet 2011, p. 273-308 (ISSN 0260-1230 et 1464-3766, DOI 10.1093/MOLLUS/EYR017, lire en ligne)</t>
         </is>
